--- a/for-tests/FlightGUIBU/Default.xlsx
+++ b/for-tests/FlightGUIBU/Default.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
     <sheet name="Launch App" sheetId="2" r:id="rId2"/>
-    <sheet name="Login" sheetId="3" r:id="rId3"/>
+    <sheet name="Login2" sheetId="3" r:id="rId3"/>
     <sheet name="Book Flight" sheetId="4" r:id="rId4"/>
     <sheet name="Select Flight" sheetId="5" r:id="rId5"/>
     <sheet name="Order Flight" sheetId="6" r:id="rId6"/>

--- a/for-tests/FlightGUIBU/Default.xlsx
+++ b/for-tests/FlightGUIBU/Default.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
     <sheet name="Launch App" sheetId="2" r:id="rId2"/>
-    <sheet name="Login2" sheetId="3" r:id="rId3"/>
+    <sheet name="LoginAgain" sheetId="3" r:id="rId3"/>
     <sheet name="Book Flight" sheetId="4" r:id="rId4"/>
     <sheet name="Select Flight" sheetId="5" r:id="rId5"/>
     <sheet name="Order Flight" sheetId="6" r:id="rId6"/>
